--- a/server/Excel.xlsx
+++ b/server/Excel.xlsx
@@ -5,40 +5,79 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Название теста" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>string</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Фамилия, номер группы</t>
+  </si>
+  <si>
+    <t>Вопрос 1</t>
+  </si>
+  <si>
+    <t>Вопрос 2</t>
+  </si>
+  <si>
+    <t>Кол-во верных ответов</t>
+  </si>
+  <si>
+    <t>Dm1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Dm2</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>Dm3</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>Dm4</t>
+  </si>
+  <si>
+    <t>Dm5</t>
+  </si>
+  <si>
+    <t>Dm317</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Правильные ответы</t>
+  </si>
+  <si>
+    <t>Кол-во неверных ответов на вопрос</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>86%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0800"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0800"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -63,10 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -76,31 +113,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1">
-        <f>A1 + B1</f>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="b">
-        <v>1</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
